--- a/experiments/exp1/exp1.xlsx
+++ b/experiments/exp1/exp1.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="EXP1_direct_communication" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="EXP1_network" localSheetId="0">Sheet1!$A$1:$D$25</definedName>
@@ -99,17 +102,17 @@
     <t>Comm Tree 8 round</t>
   </si>
   <si>
-    <t>direct comm with offline cluster</t>
+    <t xml:space="preserve">Sparse Communication Graph </t>
   </si>
   <si>
-    <t>8 round comm tree with offline cluster</t>
+    <t>Direct Communication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +136,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="NimbusRomNo9L"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,7 +159,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -159,18 +167,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -268,7 +285,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 round comm tree with offline cluster</c:v>
+                  <c:v>Sparse Communication Graph </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -349,52 +366,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.30687344358E6</c:v>
+                  <c:v>4.88944358</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7660.128</c:v>
+                  <c:v>7.660128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13690.4411</c:v>
+                  <c:v>13.6904411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24610.1989</c:v>
+                  <c:v>24.6101989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47590.585</c:v>
+                  <c:v>47.590585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93225.384</c:v>
+                  <c:v>93.22538400000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>184495.01</c:v>
+                  <c:v>184.49501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>366056.32</c:v>
+                  <c:v>366.05632</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>730808.8199999999</c:v>
+                  <c:v>730.80882</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4586838E6</c:v>
+                  <c:v>1458.6838</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.91524912E6</c:v>
+                  <c:v>2915.249119999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.83017225E6</c:v>
+                  <c:v>5830.17225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.16583887E7</c:v>
+                  <c:v>11658.3887</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3316125E7</c:v>
+                  <c:v>23316.125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.66319245E7</c:v>
+                  <c:v>46631.9245</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.3261574E7</c:v>
+                  <c:v>93261.574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,7 +427,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>direct comm with offline cluster</c:v>
+                  <c:v>Direct Communication</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -491,52 +508,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.326993846E6</c:v>
+                  <c:v>25.009846</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25019.85</c:v>
+                  <c:v>25.01985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25040.035</c:v>
+                  <c:v>25.040035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25080.062</c:v>
+                  <c:v>25.080062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25160.094</c:v>
+                  <c:v>25.160094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25320.06</c:v>
+                  <c:v>25.32006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25639.9</c:v>
+                  <c:v>25.6399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26280.045</c:v>
+                  <c:v>26.280045</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27559.857</c:v>
+                  <c:v>27.559857</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30120.1</c:v>
+                  <c:v>30.1201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35240.176</c:v>
+                  <c:v>35.240176</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45880.176</c:v>
+                  <c:v>45.880176</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66759.836</c:v>
+                  <c:v>66.75983599999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>108920.7</c:v>
+                  <c:v>108.9207</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>193240.19</c:v>
+                  <c:v>193.24019</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>361480.1</c:v>
+                  <c:v>361.4801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,7 +569,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 round comm tree with offline cluster</c:v>
+                  <c:v>Sparse Communication Graph </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -633,52 +650,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.30687344358E6</c:v>
+                  <c:v>4.88944358</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7660.128</c:v>
+                  <c:v>7.660128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13690.4411</c:v>
+                  <c:v>13.6904411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24610.1989</c:v>
+                  <c:v>24.6101989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47590.585</c:v>
+                  <c:v>47.590585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93225.384</c:v>
+                  <c:v>93.22538400000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>184495.01</c:v>
+                  <c:v>184.49501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>366056.32</c:v>
+                  <c:v>366.05632</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>730808.8199999999</c:v>
+                  <c:v>730.80882</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4586838E6</c:v>
+                  <c:v>1458.6838</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.91524912E6</c:v>
+                  <c:v>2915.249119999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.83017225E6</c:v>
+                  <c:v>5830.17225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.16583887E7</c:v>
+                  <c:v>11658.3887</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3316125E7</c:v>
+                  <c:v>23316.125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.66319245E7</c:v>
+                  <c:v>46631.9245</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.3261574E7</c:v>
+                  <c:v>93261.574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -694,7 +711,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>direct comm with offline cluster</c:v>
+                  <c:v>Direct Communication</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -775,52 +792,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.326993846E6</c:v>
+                  <c:v>25.009846</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25019.85</c:v>
+                  <c:v>25.01985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25040.035</c:v>
+                  <c:v>25.040035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25080.062</c:v>
+                  <c:v>25.080062</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25160.094</c:v>
+                  <c:v>25.160094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25320.06</c:v>
+                  <c:v>25.32006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25639.9</c:v>
+                  <c:v>25.6399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26280.045</c:v>
+                  <c:v>26.280045</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27559.857</c:v>
+                  <c:v>27.559857</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30120.1</c:v>
+                  <c:v>30.1201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35240.176</c:v>
+                  <c:v>35.240176</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45880.176</c:v>
+                  <c:v>45.880176</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66759.836</c:v>
+                  <c:v>66.75983599999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>108920.7</c:v>
+                  <c:v>108.9207</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>193240.19</c:v>
+                  <c:v>193.24019</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>361480.1</c:v>
+                  <c:v>361.4801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,11 +853,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1902415888"/>
-        <c:axId val="1903988192"/>
+        <c:axId val="2133913600"/>
+        <c:axId val="-2144586032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1902415888"/>
+        <c:axId val="2133913600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1903988192"/>
+        <c:crossAx val="-2144586032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -891,7 +908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1903988192"/>
+        <c:axId val="-2144586032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1902415888"/>
+        <c:crossAx val="2133913600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1037,65 +1054,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>BW = 10000</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.137556939710894"/>
+          <c:y val="0.0345853658536585"/>
+          <c:w val="0.839460336114702"/>
+          <c:h val="0.775019781063952"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1108,7 +1079,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 round comm tree with offline cluster</c:v>
+                  <c:v>Sparse Communication Graph </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1177,40 +1148,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>977.8886599999998</c:v>
+                  <c:v>0.97788866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1140.87015</c:v>
+                  <c:v>1.14087015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1955.77732</c:v>
+                  <c:v>1.95577732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3259.62875</c:v>
+                  <c:v>3.25962875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5052.425</c:v>
+                  <c:v>5.052425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9778.8873</c:v>
+                  <c:v>9.778887300000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18905.8478</c:v>
+                  <c:v>18.9058478</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37159.7702</c:v>
+                  <c:v>37.1597702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73667.615</c:v>
+                  <c:v>73.66761499999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>146683.306</c:v>
+                  <c:v>146.683306</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>291899.79</c:v>
+                  <c:v>291.8997900000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>583473.59</c:v>
+                  <c:v>583.47359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,7 +1197,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>direct comm with offline cluster</c:v>
+                  <c:v>Direct Communication</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1295,40 +1266,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>25000.979</c:v>
+                  <c:v>25.000979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25001.957</c:v>
+                  <c:v>25.001957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25003.926</c:v>
+                  <c:v>25.003926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25007.887</c:v>
+                  <c:v>25.007887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25015.926</c:v>
+                  <c:v>25.015926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25032.148</c:v>
+                  <c:v>25.032148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25064.139</c:v>
+                  <c:v>25.064139</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25127.945</c:v>
+                  <c:v>25.127945</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25255.92</c:v>
+                  <c:v>25.25592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25511.957</c:v>
+                  <c:v>25.511957</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26024.121</c:v>
+                  <c:v>26.024121</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27087.908</c:v>
+                  <c:v>27.087908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,11 +1315,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1898325968"/>
-        <c:axId val="1898342720"/>
+        <c:axId val="2134113792"/>
+        <c:axId val="-2144952224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1898325968"/>
+        <c:axId val="2134113792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,22 +1347,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1898342720"/>
+        <c:crossAx val="-2144952224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1399,7 +1367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1898342720"/>
+        <c:axId val="-2144952224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,6 +1387,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1435,22 +1463,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1898325968"/>
+        <c:crossAx val="2134113792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,13 +1488,27 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.266666823363497"/>
+          <c:y val="0.0703840983291722"/>
+          <c:w val="0.599004818427547"/>
+          <c:h val="0.191377760706741"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1478,16 +1517,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Times New Roman" charset="0"/>
+              <a:ea typeface="Times New Roman" charset="0"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1545,65 +1581,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>BW = 10000</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.115056842007175"/>
+          <c:y val="0.0358947043384283"/>
+          <c:w val="0.863604109397568"/>
+          <c:h val="0.773916936853481"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1616,7 +1606,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 round comm tree with offline cluster</c:v>
+                  <c:v>Sparse Communication Graph </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1635,10 +1625,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$42:$B$55</c:f>
+              <c:f>Sheet1!$B$42:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1674,63 +1664,51 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$42:$G$55</c:f>
+              <c:f>Sheet1!$G$42:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>651.925792</c:v>
+                  <c:v>0.651925792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>651.925792</c:v>
+                  <c:v>0.651925792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>651.925792</c:v>
+                  <c:v>0.651925792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>651.925792</c:v>
+                  <c:v>0.651925792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>977.8886599999998</c:v>
+                  <c:v>0.97788866</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1283.47891</c:v>
+                  <c:v>1.28347891</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2281.7403</c:v>
+                  <c:v>2.2817403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4563.4806</c:v>
+                  <c:v>4.5634806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7660.128</c:v>
+                  <c:v>7.660128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14994.294</c:v>
+                  <c:v>14.994294</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29662.6232</c:v>
+                  <c:v>29.6626232</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58652.944</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>117020.694</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>234041.388</c:v>
+                  <c:v>58.652944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1746,7 +1724,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>direct comm with offline cluster</c:v>
+                  <c:v>Direct Communication</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1765,10 +1743,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$42:$B$55</c:f>
+              <c:f>Sheet1!$B$42:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1804,63 +1782,51 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$42:$H$55</c:f>
+              <c:f>Sheet1!$H$42:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>25000.02</c:v>
+                  <c:v>25.00002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25000.076</c:v>
+                  <c:v>25.000076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25000.305</c:v>
+                  <c:v>25.000305</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25000.912</c:v>
+                  <c:v>25.000912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25001.695</c:v>
+                  <c:v>25.001695</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25003.17</c:v>
+                  <c:v>25.00317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25006.521</c:v>
+                  <c:v>25.006521</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25012.713</c:v>
+                  <c:v>25.012713</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25025.467</c:v>
+                  <c:v>25.025467</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25051.086</c:v>
+                  <c:v>25.051086</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25102.479</c:v>
+                  <c:v>25.102479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25208.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25417.674</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25839.115</c:v>
+                  <c:v>25.20891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,11 +1842,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1904435472"/>
-        <c:axId val="1905148752"/>
+        <c:axId val="2133893456"/>
+        <c:axId val="-2144872608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1904435472"/>
+        <c:axId val="2133893456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,22 +1874,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1905148752"/>
+        <c:crossAx val="-2144872608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1931,7 +1894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1905148752"/>
+        <c:axId val="-2144872608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,6 +1914,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
+                  </a:rPr>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" charset="0"/>
+                  <a:ea typeface="Times New Roman" charset="0"/>
+                  <a:cs typeface="Times New Roman" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1967,22 +1987,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1904435472"/>
+        <c:crossAx val="2133893456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1995,13 +2012,27 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.202100591715976"/>
+          <c:y val="0.0878859811641192"/>
+          <c:w val="0.667721893491124"/>
+          <c:h val="0.162904122278833"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2010,16 +2041,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Times New Roman" charset="0"/>
+              <a:ea typeface="Times New Roman" charset="0"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3766,15 +3794,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2298700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3797,15 +3825,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3828,6 +3856,143 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="I1" t="str">
+            <v>1/12 corruption</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>1/32 corruption</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>1/128 corruption</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="E2">
+            <v>1024</v>
+          </cell>
+          <cell r="I2">
+            <v>127.4531808793536</v>
+          </cell>
+          <cell r="J2">
+            <v>36.875055879353603</v>
+          </cell>
+          <cell r="K2">
+            <v>15.453180879353599</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>2048</v>
+          </cell>
+          <cell r="I3">
+            <v>63.726629000000003</v>
+          </cell>
+          <cell r="J3">
+            <v>18.4375651925792</v>
+          </cell>
+          <cell r="K3">
+            <v>7.7266276925791999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>4096</v>
+          </cell>
+          <cell r="I4">
+            <v>31.863362850000001</v>
+          </cell>
+          <cell r="J4">
+            <v>9.218826</v>
+          </cell>
+          <cell r="K4">
+            <v>3.8633557558048</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>8192</v>
+          </cell>
+          <cell r="I5">
+            <v>15.931739625000001</v>
+          </cell>
+          <cell r="J5">
+            <v>4.6094667999999999</v>
+          </cell>
+          <cell r="K5">
+            <v>1.931726125</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>16384</v>
+          </cell>
+          <cell r="I6">
+            <v>7.9659403124999999</v>
+          </cell>
+          <cell r="J6">
+            <v>2.3047974999999998</v>
+          </cell>
+          <cell r="K6">
+            <v>0.96592231250000005</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>32768</v>
+          </cell>
+          <cell r="I7">
+            <v>3.9830638244680001</v>
+          </cell>
+          <cell r="J7">
+            <v>1.15247575</v>
+          </cell>
+          <cell r="K7">
+            <v>0.48303115624999998</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>65536</v>
+          </cell>
+          <cell r="I8">
+            <v>1.991664625713</v>
+          </cell>
+          <cell r="J8">
+            <v>0.57633951305599995</v>
+          </cell>
+          <cell r="K8">
+            <v>0.24159907812500001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>131072</v>
+          </cell>
+          <cell r="I9">
+            <v>0.99609075485050003</v>
+          </cell>
+          <cell r="J9">
+            <v>0.28831294738699997</v>
+          </cell>
+          <cell r="K9">
+            <v>0.1209091469565</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4097,10 +4262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4111,7 +4276,7 @@
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4130,17 +4295,17 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50</v>
       </c>
@@ -4161,22 +4326,22 @@
         <v>25009.846000000001</v>
       </c>
       <c r="G2">
-        <f>E2+K2</f>
-        <v>1306873.44358</v>
+        <f>E2/1000</f>
+        <v>4.88944358</v>
       </c>
       <c r="H2">
-        <f>F2+K2</f>
-        <v>1326993.8459999999</v>
+        <f>F2/1000</f>
+        <v>25.009846000000003</v>
       </c>
       <c r="I2">
         <f>G2/H2</f>
-        <v>0.98483760683544275</v>
-      </c>
-      <c r="K2">
+        <v>0.19550074718572835</v>
+      </c>
+      <c r="M2">
         <v>1301984</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>50</v>
       </c>
@@ -4190,26 +4355,26 @@
         <v>1094.3040000000001</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">D3*7</f>
+        <f t="shared" ref="E3:E61" si="0">D3*7</f>
         <v>7660.1280000000006</v>
       </c>
       <c r="F3">
         <v>25019.85</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">E3+K3</f>
-        <v>7660.1280000000006</v>
+        <f t="shared" ref="G3:G61" si="1">E3/1000</f>
+        <v>7.6601280000000003</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H61" si="2">F3+K3</f>
-        <v>25019.85</v>
+        <f t="shared" ref="H3:H61" si="2">F3/1000</f>
+        <v>25.019849999999998</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I61" si="3">G3/H3</f>
         <v>0.30616202735028392</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>50</v>
       </c>
@@ -4231,18 +4396,18 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>13690.4411</v>
+        <v>13.690441099999999</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>25040.035</v>
+        <v>25.040035</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
         <v>0.54674209121512807</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50</v>
       </c>
@@ -4264,18 +4429,18 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>24610.198899999999</v>
+        <v>24.6101989</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>25080.062000000002</v>
+        <v>25.080062000000002</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
         <v>0.98126547294819277</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
@@ -4297,18 +4462,18 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>47590.584999999999</v>
+        <v>47.590584999999997</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>25160.094000000001</v>
+        <v>25.160094000000001</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
         <v>1.8915106199523737</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50</v>
       </c>
@@ -4330,18 +4495,18 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>93225.384000000005</v>
+        <v>93.225384000000005</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>25320.06</v>
+        <v>25.320060000000002</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
         <v>3.6818784789609502</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>50</v>
       </c>
@@ -4363,18 +4528,18 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>184495.01</v>
+        <v>184.49501000000001</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>25639.9</v>
+        <v>25.639900000000001</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
         <v>7.1956212777740944</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>50</v>
       </c>
@@ -4396,18 +4561,18 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>366056.32</v>
+        <v>366.05632000000003</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>26280.044999999998</v>
+        <v>26.280044999999998</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
         <v>13.929059862720937</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50</v>
       </c>
@@ -4429,18 +4594,18 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>730808.82</v>
+        <v>730.80881999999997</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>27559.857</v>
+        <v>27.559857000000001</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
         <v>26.517148474319004</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50</v>
       </c>
@@ -4462,18 +4627,18 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>1458683.8</v>
+        <v>1458.6838</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>30120.1</v>
+        <v>30.120099999999997</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
         <v>48.428916238657912</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50</v>
       </c>
@@ -4495,18 +4660,18 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>2915249.1199999996</v>
+        <v>2915.2491199999995</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>35240.175999999999</v>
+        <v>35.240175999999998</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
         <v>82.725157785818084</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50</v>
       </c>
@@ -4528,18 +4693,18 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>5830172.25</v>
+        <v>5830.1722499999996</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>45880.175999999999</v>
+        <v>45.880175999999999</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>127.07388589790938</v>
+        <v>127.07388589790936</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50</v>
       </c>
@@ -4561,18 +4726,18 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>11658388.700000001</v>
+        <v>11658.388700000001</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>66759.835999999996</v>
+        <v>66.759835999999993</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
         <v>174.63177560831639</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50</v>
       </c>
@@ -4594,18 +4759,18 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>23316125</v>
+        <v>23316.125</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>108920.7</v>
+        <v>108.9207</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
         <v>214.06514096953106</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50</v>
       </c>
@@ -4627,11 +4792,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>46631924.5</v>
+        <v>46631.924500000001</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>193240.19</v>
+        <v>193.24019000000001</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
@@ -4660,15 +4825,15 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>93261574</v>
+        <v>93261.573999999993</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>361480.1</v>
+        <v>361.48009999999999</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>257.99919276330843</v>
+        <v>257.99919276330837</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -4693,15 +4858,15 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>186521020</v>
+        <v>186521.02</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>697959.9</v>
+        <v>697.95990000000006</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>267.23744444344152</v>
+        <v>267.23744444344146</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -4726,11 +4891,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>373041732</v>
+        <v>373041.73200000002</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>1371314</v>
+        <v>1371.3140000000001</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
@@ -4759,11 +4924,11 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>746083184</v>
+        <v>746083.18400000001</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>2718038.5</v>
+        <v>2718.0385000000001</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
@@ -4792,11 +4957,11 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>1492165024</v>
+        <v>1492165.024</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>5411495</v>
+        <v>5411.4949999999999</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
@@ -4825,11 +4990,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>977.88865999999985</v>
+        <v>0.97788865999999985</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>25000.978999999999</v>
+        <v>25.000979000000001</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
@@ -4858,11 +5023,11 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>1140.87015</v>
+        <v>1.14087015</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>25001.956999999999</v>
+        <v>25.001956999999997</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
@@ -4891,11 +5056,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>1955.7773199999997</v>
+        <v>1.9557773199999997</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>25003.925999999999</v>
+        <v>25.003926</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
@@ -4924,11 +5089,11 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>3259.6287499999999</v>
+        <v>3.2596287500000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>25007.886999999999</v>
+        <v>25.007887</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
@@ -4957,11 +5122,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>5052.4250000000002</v>
+        <v>5.0524250000000004</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>25015.925999999999</v>
+        <v>25.015926</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
@@ -4990,15 +5155,15 @@
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>9778.8873000000003</v>
+        <v>9.7788873000000009</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>25032.148000000001</v>
+        <v>25.032147999999999</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>0.39065314330995488</v>
+        <v>0.39065314330995493</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5023,11 +5188,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>18905.8478</v>
+        <v>18.9058478</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>25064.138999999999</v>
+        <v>25.064139000000001</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
@@ -5056,15 +5221,15 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>37159.770199999999</v>
+        <v>37.159770199999997</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>25127.945</v>
+        <v>25.127945</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>1.4788224902593508</v>
+        <v>1.4788224902593505</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5089,15 +5254,15 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>73667.614999999991</v>
+        <v>73.667614999999984</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>25255.919999999998</v>
+        <v>25.25592</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>2.9168454366342624</v>
+        <v>2.916845436634262</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5122,11 +5287,11 @@
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>146683.30600000001</v>
+        <v>146.68330600000002</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>25511.956999999999</v>
+        <v>25.511956999999999</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
@@ -5155,11 +5320,11 @@
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>291899.79000000004</v>
+        <v>291.89979000000005</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>26024.120999999999</v>
+        <v>26.024121000000001</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
@@ -5188,11 +5353,11 @@
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>583473.59</v>
+        <v>583.47358999999994</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>27087.907999999999</v>
+        <v>27.087907999999999</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
@@ -5221,15 +5386,15 @@
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>1166295.2</v>
+        <v>1166.2952</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>29175.848000000002</v>
+        <v>29.175848000000002</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>39.974680427454921</v>
+        <v>39.974680427454928</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5254,11 +5419,11 @@
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>2331938.42</v>
+        <v>2331.93842</v>
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>33391.85</v>
+        <v>33.391849999999998</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
@@ -5287,11 +5452,11 @@
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>4663550.92</v>
+        <v>4663.5509199999997</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>41824.17</v>
+        <v>41.824169999999995</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
@@ -5320,11 +5485,11 @@
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>9327101.7000000011</v>
+        <v>9327.1017000000011</v>
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>58648.305</v>
+        <v>58.648305000000001</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
@@ -5353,15 +5518,15 @@
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>18652574.5</v>
+        <v>18652.574499999999</v>
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>92296.53</v>
+        <v>92.296530000000004</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>202.09399529971495</v>
+        <v>202.09399529971492</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -5386,15 +5551,15 @@
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>37304477</v>
+        <v>37304.476999999999</v>
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
-        <v>159632.60999999999</v>
+        <v>159.63261</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
-        <v>233.68957633405859</v>
+        <v>233.68957633405856</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -5419,15 +5584,15 @@
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>74608674</v>
+        <v>74608.673999999999</v>
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
-        <v>294303.75</v>
+        <v>294.30374999999998</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
-        <v>253.50908372727156</v>
+        <v>253.50908372727159</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -5452,11 +5617,11 @@
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>149217348</v>
+        <v>149217.348</v>
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
-        <v>563645.30000000005</v>
+        <v>563.64530000000002</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
@@ -5485,11 +5650,11 @@
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
-        <v>651.925792</v>
+        <v>0.651925792</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>25000.02</v>
+        <v>25.000019999999999</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
@@ -5518,11 +5683,11 @@
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
-        <v>651.925792</v>
+        <v>0.651925792</v>
       </c>
       <c r="H43">
         <f t="shared" si="2"/>
-        <v>25000.076000000001</v>
+        <v>25.000076</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
@@ -5551,11 +5716,11 @@
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
-        <v>651.925792</v>
+        <v>0.651925792</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>25000.305</v>
+        <v>25.000305000000001</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
@@ -5584,11 +5749,11 @@
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
-        <v>651.925792</v>
+        <v>0.651925792</v>
       </c>
       <c r="H45">
         <f t="shared" si="2"/>
-        <v>25000.912</v>
+        <v>25.000912</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
@@ -5617,11 +5782,11 @@
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
-        <v>977.88865999999985</v>
+        <v>0.97788865999999985</v>
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>25001.695</v>
+        <v>25.001694999999998</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
@@ -5650,15 +5815,15 @@
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
-        <v>1283.47891</v>
+        <v>1.2834789100000001</v>
       </c>
       <c r="H47">
         <f t="shared" si="2"/>
-        <v>25003.17</v>
+        <v>25.003169999999997</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
-        <v>5.1332647420307111E-2</v>
+        <v>5.1332647420307118E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -5683,15 +5848,15 @@
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
-        <v>2281.7402999999999</v>
+        <v>2.2817403000000001</v>
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
-        <v>25006.521000000001</v>
+        <v>25.006520999999999</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
-        <v>9.1245811442543318E-2</v>
+        <v>9.1245811442543331E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -5716,15 +5881,15 @@
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
-        <v>4563.4805999999999</v>
+        <v>4.5634806000000001</v>
       </c>
       <c r="H49">
         <f t="shared" si="2"/>
-        <v>25012.713</v>
+        <v>25.012712999999998</v>
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
-        <v>0.18244644633311069</v>
+        <v>0.18244644633311072</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -5749,11 +5914,11 @@
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>7660.1280000000006</v>
+        <v>7.6601280000000003</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>25025.467000000001</v>
+        <v>25.025466999999999</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
@@ -5782,11 +5947,11 @@
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
-        <v>14994.294</v>
+        <v>14.994294</v>
       </c>
       <c r="H51">
         <f t="shared" si="2"/>
-        <v>25051.085999999999</v>
+        <v>25.051085999999998</v>
       </c>
       <c r="I51">
         <f t="shared" si="3"/>
@@ -5815,15 +5980,15 @@
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
-        <v>29662.623200000002</v>
+        <v>29.662623200000002</v>
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
-        <v>25102.478999999999</v>
+        <v>25.102478999999999</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
-        <v>1.1816611100441514</v>
+        <v>1.1816611100441516</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -5848,11 +6013,11 @@
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
-        <v>58652.944000000003</v>
+        <v>58.652944000000005</v>
       </c>
       <c r="H53">
         <f t="shared" si="2"/>
-        <v>25208.91</v>
+        <v>25.208909999999999</v>
       </c>
       <c r="I53">
         <f t="shared" si="3"/>
@@ -5881,11 +6046,11 @@
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
-        <v>117020.69399999999</v>
+        <v>117.02069399999999</v>
       </c>
       <c r="H54">
         <f t="shared" si="2"/>
-        <v>25417.673999999999</v>
+        <v>25.417673999999998</v>
       </c>
       <c r="I54">
         <f t="shared" si="3"/>
@@ -5914,11 +6079,11 @@
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
-        <v>234041.38799999998</v>
+        <v>234.04138799999998</v>
       </c>
       <c r="H55">
         <f t="shared" si="2"/>
-        <v>25839.115000000002</v>
+        <v>25.839115000000003</v>
       </c>
       <c r="I55">
         <f t="shared" si="3"/>
@@ -5947,15 +6112,15 @@
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
-        <v>466697.42</v>
+        <v>466.69741999999997</v>
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
-        <v>26682.543000000001</v>
+        <v>26.682543000000003</v>
       </c>
       <c r="I56">
         <f t="shared" si="3"/>
-        <v>17.490739919354763</v>
+        <v>17.490739919354759</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -5980,11 +6145,11 @@
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
-        <v>933231.88</v>
+        <v>933.23188000000005</v>
       </c>
       <c r="H57">
         <f t="shared" si="2"/>
-        <v>28364.956999999999</v>
+        <v>28.364956999999997</v>
       </c>
       <c r="I57">
         <f t="shared" si="3"/>
@@ -6013,11 +6178,11 @@
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
-        <v>1865648.9600000002</v>
+        <v>1865.6489600000002</v>
       </c>
       <c r="H58">
         <f t="shared" si="2"/>
-        <v>31729.508000000002</v>
+        <v>31.729508000000003</v>
       </c>
       <c r="I58">
         <f t="shared" si="3"/>
@@ -6046,11 +6211,11 @@
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
-        <v>3730972</v>
+        <v>3730.9720000000002</v>
       </c>
       <c r="H59">
         <f t="shared" si="2"/>
-        <v>38463.06</v>
+        <v>38.463059999999999</v>
       </c>
       <c r="I59">
         <f t="shared" si="3"/>
@@ -6079,15 +6244,15 @@
       </c>
       <c r="G60">
         <f t="shared" si="1"/>
-        <v>7461292.2999999989</v>
+        <v>7461.2922999999992</v>
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
-        <v>51930.188000000002</v>
+        <v>51.930188000000001</v>
       </c>
       <c r="I60">
         <f t="shared" si="3"/>
-        <v>143.67928535132586</v>
+        <v>143.67928535132589</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -6112,11 +6277,11 @@
       </c>
       <c r="G61">
         <f t="shared" si="1"/>
-        <v>14922257</v>
+        <v>14922.257</v>
       </c>
       <c r="H61">
         <f t="shared" si="2"/>
-        <v>78864.804999999993</v>
+        <v>78.86480499999999</v>
       </c>
       <c r="I61">
         <f t="shared" si="3"/>

--- a/experiments/exp1/exp1.xlsx
+++ b/experiments/exp1/exp1.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="EXP1_direct_communication" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="EXP1_network" localSheetId="0">Sheet1!$A$1:$D$25</definedName>
@@ -853,11 +850,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2133913600"/>
-        <c:axId val="-2144586032"/>
+        <c:axId val="-2125539920"/>
+        <c:axId val="2146622784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133913600"/>
+        <c:axId val="-2125539920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144586032"/>
+        <c:crossAx val="2146622784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -908,7 +905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144586032"/>
+        <c:axId val="2146622784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133913600"/>
+        <c:crossAx val="-2125539920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1315,11 +1312,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2134113792"/>
-        <c:axId val="-2144952224"/>
+        <c:axId val="-2125432432"/>
+        <c:axId val="2146577856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134113792"/>
+        <c:axId val="-2125432432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144952224"/>
+        <c:crossAx val="2146577856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1367,7 +1364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144952224"/>
+        <c:axId val="2146577856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1472,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134113792"/>
+        <c:crossAx val="-2125432432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1842,11 +1839,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2133893456"/>
-        <c:axId val="-2144872608"/>
+        <c:axId val="-2088821440"/>
+        <c:axId val="-2088938032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133893456"/>
+        <c:axId val="-2088821440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +1883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144872608"/>
+        <c:crossAx val="-2088938032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1894,7 +1891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144872608"/>
+        <c:axId val="-2088938032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +1996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133893456"/>
+        <c:crossAx val="-2088821440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3856,143 +3853,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="I1" t="str">
-            <v>1/12 corruption</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>1/32 corruption</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>1/128 corruption</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="E2">
-            <v>1024</v>
-          </cell>
-          <cell r="I2">
-            <v>127.4531808793536</v>
-          </cell>
-          <cell r="J2">
-            <v>36.875055879353603</v>
-          </cell>
-          <cell r="K2">
-            <v>15.453180879353599</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>2048</v>
-          </cell>
-          <cell r="I3">
-            <v>63.726629000000003</v>
-          </cell>
-          <cell r="J3">
-            <v>18.4375651925792</v>
-          </cell>
-          <cell r="K3">
-            <v>7.7266276925791999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>4096</v>
-          </cell>
-          <cell r="I4">
-            <v>31.863362850000001</v>
-          </cell>
-          <cell r="J4">
-            <v>9.218826</v>
-          </cell>
-          <cell r="K4">
-            <v>3.8633557558048</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>8192</v>
-          </cell>
-          <cell r="I5">
-            <v>15.931739625000001</v>
-          </cell>
-          <cell r="J5">
-            <v>4.6094667999999999</v>
-          </cell>
-          <cell r="K5">
-            <v>1.931726125</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>16384</v>
-          </cell>
-          <cell r="I6">
-            <v>7.9659403124999999</v>
-          </cell>
-          <cell r="J6">
-            <v>2.3047974999999998</v>
-          </cell>
-          <cell r="K6">
-            <v>0.96592231250000005</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>32768</v>
-          </cell>
-          <cell r="I7">
-            <v>3.9830638244680001</v>
-          </cell>
-          <cell r="J7">
-            <v>1.15247575</v>
-          </cell>
-          <cell r="K7">
-            <v>0.48303115624999998</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>65536</v>
-          </cell>
-          <cell r="I8">
-            <v>1.991664625713</v>
-          </cell>
-          <cell r="J8">
-            <v>0.57633951305599995</v>
-          </cell>
-          <cell r="K8">
-            <v>0.24159907812500001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>131072</v>
-          </cell>
-          <cell r="I9">
-            <v>0.99609075485050003</v>
-          </cell>
-          <cell r="J9">
-            <v>0.28831294738699997</v>
-          </cell>
-          <cell r="K9">
-            <v>0.1209091469565</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
